--- a/biology/Zoologie/Bonapartenykus/Bonapartenykus.xlsx
+++ b/biology/Zoologie/Bonapartenykus/Bonapartenykus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bonapartenykus ultimus
 Bonapartenykus est un genre éteint de dinosaures théropodes de taille modeste, de la famille des alvarezsauridés. Il est connu du Crétacé supérieur (Campanien / Maastrichtien) du nord-ouest de la Patagonie, en Argentine.
-Ce genre, nommé en l'honneur du paléontologue José Bonaparte, a pour espèce type (la seule espèce connue) Bonapartenykus ultimus[1]. 
+Ce genre, nommé en l'honneur du paléontologue José Bonaparte, a pour espèce type (la seule espèce connue) Bonapartenykus ultimus. 
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La longueur de la femelle adulte a été estimée à au moins 2,60 mètres[2], pour une masse évaluée à 45 kilos[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur de la femelle adulte a été estimée à au moins 2,60 mètres, pour une masse évaluée à 45 kilos.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nourrissait probablement d'insectes[3].
-Une femelle adulte de B. ultimus a été découverte avec deux œufs qui auraient encore été à l'intérieur de ses oviductes[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrissait probablement d'insectes.
+Une femelle adulte de B. ultimus a été découverte avec deux œufs qui auraient encore été à l'intérieur de ses oviductes.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme suivant montre la position phylogénétique de Bonapartenykus parmi les Alvarezsauridae, suivant l'étude menée par Makovicky, Apesteguía et Gianechini en 2012, lors de la description d'Alnashetri cerropoliciensis[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant montre la position phylogénétique de Bonapartenykus parmi les Alvarezsauridae, suivant l'étude menée par Makovicky, Apesteguía et Gianechini en 2012, lors de la description d'Alnashetri cerropoliciensis :
 </t>
         </is>
       </c>
